--- a/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/partialResourceAllocation.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/partialResourceAllocation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,7 +13,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1283,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-325088800"/>
-        <c:axId val="-325097504"/>
+        <c:axId val="771591872"/>
+        <c:axId val="771583712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-325088800"/>
+        <c:axId val="771591872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-325097504"/>
+        <c:crossAx val="771583712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-325097504"/>
+        <c:axId val="771583712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -1564,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-325088800"/>
+        <c:crossAx val="771591872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -2098,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113639248"/>
-        <c:axId val="-113635984"/>
+        <c:axId val="771609824"/>
+        <c:axId val="771595680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113639248"/>
+        <c:axId val="771609824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113635984"/>
+        <c:crossAx val="771595680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113635984"/>
+        <c:axId val="771595680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2348,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113639248"/>
+        <c:crossAx val="771609824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2841,11 +2840,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113630544"/>
-        <c:axId val="-113632720"/>
+        <c:axId val="771610368"/>
+        <c:axId val="771610912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113630544"/>
+        <c:axId val="771610368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113632720"/>
+        <c:crossAx val="771610912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113632720"/>
+        <c:axId val="771610912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3090,7 +3089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113630544"/>
+        <c:crossAx val="771610368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3583,11 +3582,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113630000"/>
-        <c:axId val="-113638704"/>
+        <c:axId val="771612000"/>
+        <c:axId val="771612544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113630000"/>
+        <c:axId val="771612000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113638704"/>
+        <c:crossAx val="771612544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3701,7 +3700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113638704"/>
+        <c:axId val="771612544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3833,7 +3832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113630000"/>
+        <c:crossAx val="771612000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4326,11 +4325,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113631632"/>
-        <c:axId val="-113632176"/>
+        <c:axId val="771613088"/>
+        <c:axId val="771613632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113631632"/>
+        <c:axId val="771613088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113632176"/>
+        <c:crossAx val="771613632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4444,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113632176"/>
+        <c:axId val="771613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -4576,7 +4575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113631632"/>
+        <c:crossAx val="771613088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -5068,11 +5067,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113638160"/>
-        <c:axId val="-113626736"/>
+        <c:axId val="771614720"/>
+        <c:axId val="1072166464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113638160"/>
+        <c:axId val="771614720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5178,7 +5177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113626736"/>
+        <c:crossAx val="1072166464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5186,7 +5185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113626736"/>
+        <c:axId val="1072166464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -5318,7 +5317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113638160"/>
+        <c:crossAx val="771614720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -6172,11 +6171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-325100768"/>
-        <c:axId val="-325096960"/>
+        <c:axId val="771600032"/>
+        <c:axId val="771592960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-325100768"/>
+        <c:axId val="771600032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6312,7 +6311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-325096960"/>
+        <c:crossAx val="771592960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6320,7 +6319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-325096960"/>
+        <c:axId val="771592960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -6453,7 +6452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-325100768"/>
+        <c:crossAx val="771600032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6980,11 +6979,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-325396672"/>
-        <c:axId val="-113628368"/>
+        <c:axId val="771586976"/>
+        <c:axId val="771609280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-325396672"/>
+        <c:axId val="771586976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7087,7 +7086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113628368"/>
+        <c:crossAx val="771609280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7095,7 +7094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113628368"/>
+        <c:axId val="771609280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7226,7 +7225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-325396672"/>
+        <c:crossAx val="771586976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -7712,11 +7711,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113624560"/>
-        <c:axId val="-113633264"/>
+        <c:axId val="771598400"/>
+        <c:axId val="771594048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113624560"/>
+        <c:axId val="771598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113633264"/>
+        <c:crossAx val="771594048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7827,7 +7826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113633264"/>
+        <c:axId val="771594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7958,7 +7957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113624560"/>
+        <c:crossAx val="771598400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -8451,11 +8450,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113627824"/>
-        <c:axId val="-113627280"/>
+        <c:axId val="771607648"/>
+        <c:axId val="771608192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113627824"/>
+        <c:axId val="771607648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8561,7 +8560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113627280"/>
+        <c:crossAx val="771608192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8569,7 +8568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113627280"/>
+        <c:axId val="771608192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -8700,7 +8699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113627824"/>
+        <c:crossAx val="771607648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -9192,11 +9191,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113625648"/>
-        <c:axId val="-113629456"/>
+        <c:axId val="771592416"/>
+        <c:axId val="771601664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113625648"/>
+        <c:axId val="771592416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9302,7 +9301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113629456"/>
+        <c:crossAx val="771601664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9310,7 +9309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113629456"/>
+        <c:axId val="771601664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -9441,7 +9440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113625648"/>
+        <c:crossAx val="771592416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -9933,11 +9932,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113635440"/>
-        <c:axId val="-113639792"/>
+        <c:axId val="771594592"/>
+        <c:axId val="771608736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113635440"/>
+        <c:axId val="771594592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10043,7 +10042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113639792"/>
+        <c:crossAx val="771608736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10051,7 +10050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113639792"/>
+        <c:axId val="771608736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -10182,7 +10181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113635440"/>
+        <c:crossAx val="771594592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -10674,11 +10673,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113634896"/>
-        <c:axId val="-113626192"/>
+        <c:axId val="771597312"/>
+        <c:axId val="771614176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113634896"/>
+        <c:axId val="771597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10784,7 +10783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113626192"/>
+        <c:crossAx val="771614176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10792,7 +10791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113626192"/>
+        <c:axId val="771614176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -10923,7 +10922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113634896"/>
+        <c:crossAx val="771597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -11415,11 +11414,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-113634352"/>
-        <c:axId val="-113633808"/>
+        <c:axId val="771595136"/>
+        <c:axId val="771596224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-113634352"/>
+        <c:axId val="771595136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11525,7 +11524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113633808"/>
+        <c:crossAx val="771596224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11533,7 +11532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-113633808"/>
+        <c:axId val="771596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -11664,7 +11663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113634352"/>
+        <c:crossAx val="771595136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -19801,1453 +19800,49 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="AK4">
-            <v>0</v>
-          </cell>
-          <cell r="AL4">
-            <v>0</v>
-          </cell>
-          <cell r="AM4">
-            <v>0</v>
-          </cell>
-          <cell r="AN4">
-            <v>0</v>
-          </cell>
-          <cell r="AO4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AK5">
-            <v>0</v>
-          </cell>
-          <cell r="AL5">
-            <v>0</v>
-          </cell>
-          <cell r="AM5">
-            <v>0</v>
-          </cell>
-          <cell r="AN5">
-            <v>0</v>
-          </cell>
-          <cell r="AO5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AK6">
-            <v>36</v>
-          </cell>
-          <cell r="AL6">
-            <v>28</v>
-          </cell>
-          <cell r="AM6">
-            <v>46</v>
-          </cell>
-          <cell r="AN6">
-            <v>0</v>
-          </cell>
-          <cell r="AO6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AK7">
-            <v>4</v>
-          </cell>
-          <cell r="AL7">
-            <v>29</v>
-          </cell>
-          <cell r="AM7">
-            <v>26</v>
-          </cell>
-          <cell r="AN7">
-            <v>3</v>
-          </cell>
-          <cell r="AO7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AK8">
-            <v>23</v>
-          </cell>
-          <cell r="AL8">
-            <v>45</v>
-          </cell>
-          <cell r="AM8">
-            <v>93</v>
-          </cell>
-          <cell r="AN8">
-            <v>152</v>
-          </cell>
-          <cell r="AO8">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AK9">
-            <v>27</v>
-          </cell>
-          <cell r="AL9">
-            <v>50</v>
-          </cell>
-          <cell r="AM9">
-            <v>37</v>
-          </cell>
-          <cell r="AN9">
-            <v>147</v>
-          </cell>
-          <cell r="AO9">
-            <v>167</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AK10">
-            <v>37</v>
-          </cell>
-          <cell r="AL10">
-            <v>63</v>
-          </cell>
-          <cell r="AM10">
-            <v>105</v>
-          </cell>
-          <cell r="AN10">
-            <v>194</v>
-          </cell>
-          <cell r="AO10">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AK11">
-            <v>37</v>
-          </cell>
-          <cell r="AL11">
-            <v>68</v>
-          </cell>
-          <cell r="AM11">
-            <v>92</v>
-          </cell>
-          <cell r="AN11">
-            <v>149</v>
-          </cell>
-          <cell r="AO11">
-            <v>154</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>19</v>
-          </cell>
-          <cell r="AL12">
-            <v>37</v>
-          </cell>
-          <cell r="AM12">
-            <v>16</v>
-          </cell>
-          <cell r="AN12">
-            <v>169</v>
-          </cell>
-          <cell r="AO12">
-            <v>227</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AK17">
-            <v>0</v>
-          </cell>
-          <cell r="AL17">
-            <v>0</v>
-          </cell>
-          <cell r="AM17">
-            <v>0</v>
-          </cell>
-          <cell r="AN17">
-            <v>0</v>
-          </cell>
-          <cell r="AO17">
-            <v>0</v>
-          </cell>
-          <cell r="AR17">
-            <v>0</v>
-          </cell>
-          <cell r="AS17">
-            <v>0</v>
-          </cell>
-          <cell r="AT17">
-            <v>0</v>
-          </cell>
-          <cell r="AU17">
-            <v>0</v>
-          </cell>
-          <cell r="AV17">
-            <v>0</v>
-          </cell>
-          <cell r="AY17">
-            <v>0</v>
-          </cell>
-          <cell r="AZ17">
-            <v>0</v>
-          </cell>
-          <cell r="BA17">
-            <v>0</v>
-          </cell>
-          <cell r="BB17">
-            <v>0</v>
-          </cell>
-          <cell r="BC17">
-            <v>0</v>
-          </cell>
-          <cell r="BF17">
-            <v>0</v>
-          </cell>
-          <cell r="BG17">
-            <v>0</v>
-          </cell>
-          <cell r="BH17">
-            <v>0</v>
-          </cell>
-          <cell r="BI17">
-            <v>0</v>
-          </cell>
-          <cell r="BJ17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AK18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AL18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AM18">
-            <v>0</v>
-          </cell>
-          <cell r="AN18">
-            <v>0</v>
-          </cell>
-          <cell r="AO18">
-            <v>0</v>
-          </cell>
-          <cell r="AR18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AS18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AT18">
-            <v>0</v>
-          </cell>
-          <cell r="AU18">
-            <v>0</v>
-          </cell>
-          <cell r="AV18">
-            <v>0</v>
-          </cell>
-          <cell r="AY18">
-            <v>0.25</v>
-          </cell>
-          <cell r="AZ18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BA18">
-            <v>0</v>
-          </cell>
-          <cell r="BB18">
-            <v>0</v>
-          </cell>
-          <cell r="BC18">
-            <v>0</v>
-          </cell>
-          <cell r="BF18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BG18">
-            <v>0.25</v>
-          </cell>
-          <cell r="BH18">
-            <v>0</v>
-          </cell>
-          <cell r="BI18">
-            <v>0</v>
-          </cell>
-          <cell r="BJ18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AK19">
-            <v>2.25</v>
-          </cell>
-          <cell r="AL19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AM19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AN19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AO19">
-            <v>0</v>
-          </cell>
-          <cell r="AR19">
-            <v>1.25</v>
-          </cell>
-          <cell r="AS19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AT19">
-            <v>1.25</v>
-          </cell>
-          <cell r="AU19">
-            <v>0.75</v>
-          </cell>
-          <cell r="AV19">
-            <v>0</v>
-          </cell>
-          <cell r="AY19">
-            <v>1</v>
-          </cell>
-          <cell r="AZ19">
-            <v>1.25</v>
-          </cell>
-          <cell r="BA19">
-            <v>1.75</v>
-          </cell>
-          <cell r="BB19">
-            <v>1.75</v>
-          </cell>
-          <cell r="BC19">
-            <v>0</v>
-          </cell>
-          <cell r="BF19">
-            <v>1.5</v>
-          </cell>
-          <cell r="BG19">
-            <v>2.25</v>
-          </cell>
-          <cell r="BH19">
-            <v>2.25</v>
-          </cell>
-          <cell r="BI19">
-            <v>3.75</v>
-          </cell>
-          <cell r="BJ19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AK20">
-            <v>1.5</v>
-          </cell>
-          <cell r="AL20">
-            <v>2</v>
-          </cell>
-          <cell r="AM20">
-            <v>9.75</v>
-          </cell>
-          <cell r="AN20">
-            <v>28.75</v>
-          </cell>
-          <cell r="AO20">
-            <v>11.75</v>
-          </cell>
-          <cell r="AR20">
-            <v>5</v>
-          </cell>
-          <cell r="AS20">
-            <v>3.5</v>
-          </cell>
-          <cell r="AT20">
-            <v>23.25</v>
-          </cell>
-          <cell r="AU20">
-            <v>76.75</v>
-          </cell>
-          <cell r="AV20">
-            <v>35.75</v>
-          </cell>
-          <cell r="AY20">
-            <v>9.5</v>
-          </cell>
-          <cell r="AZ20">
-            <v>0.5</v>
-          </cell>
-          <cell r="BA20">
-            <v>21.75</v>
-          </cell>
-          <cell r="BB20">
-            <v>3.25</v>
-          </cell>
-          <cell r="BC20">
-            <v>12.5</v>
-          </cell>
-          <cell r="BF20">
-            <v>5</v>
-          </cell>
-          <cell r="BG20">
-            <v>1</v>
-          </cell>
-          <cell r="BH20">
-            <v>7.25</v>
-          </cell>
-          <cell r="BI20">
-            <v>5.25</v>
-          </cell>
-          <cell r="BJ20">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AK21">
-            <v>0.75</v>
-          </cell>
-          <cell r="AL21">
-            <v>1</v>
-          </cell>
-          <cell r="AM21">
-            <v>0</v>
-          </cell>
-          <cell r="AN21">
-            <v>1</v>
-          </cell>
-          <cell r="AO21">
-            <v>0</v>
-          </cell>
-          <cell r="AR21">
-            <v>0.25</v>
-          </cell>
-          <cell r="AS21">
-            <v>0.5</v>
-          </cell>
-          <cell r="AT21">
-            <v>1</v>
-          </cell>
-          <cell r="AU21">
-            <v>0</v>
-          </cell>
-          <cell r="AV21">
-            <v>0</v>
-          </cell>
-          <cell r="AY21">
-            <v>1</v>
-          </cell>
-          <cell r="AZ21">
-            <v>1.5</v>
-          </cell>
-          <cell r="BA21">
-            <v>1</v>
-          </cell>
-          <cell r="BB21">
-            <v>1</v>
-          </cell>
-          <cell r="BC21">
-            <v>0.25</v>
-          </cell>
-          <cell r="BF21">
-            <v>0</v>
-          </cell>
-          <cell r="BG21">
-            <v>1</v>
-          </cell>
-          <cell r="BH21">
-            <v>0</v>
-          </cell>
-          <cell r="BI21">
-            <v>0</v>
-          </cell>
-          <cell r="BJ21">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AK22">
-            <v>3.25</v>
-          </cell>
-          <cell r="AL22">
-            <v>2.25</v>
-          </cell>
-          <cell r="AM22">
-            <v>1.5</v>
-          </cell>
-          <cell r="AN22">
-            <v>0</v>
-          </cell>
-          <cell r="AO22">
-            <v>2.25</v>
-          </cell>
-          <cell r="AR22">
-            <v>8.25</v>
-          </cell>
-          <cell r="AS22">
-            <v>2.75</v>
-          </cell>
-          <cell r="AT22">
-            <v>57</v>
-          </cell>
-          <cell r="AU22">
-            <v>3.5</v>
-          </cell>
-          <cell r="AV22">
-            <v>1.75</v>
-          </cell>
-          <cell r="AY22">
-            <v>3.25</v>
-          </cell>
-          <cell r="AZ22">
-            <v>3</v>
-          </cell>
-          <cell r="BA22">
-            <v>18.25</v>
-          </cell>
-          <cell r="BB22">
-            <v>43</v>
-          </cell>
-          <cell r="BC22">
-            <v>12</v>
-          </cell>
-          <cell r="BF22">
-            <v>1.25</v>
-          </cell>
-          <cell r="BG22">
-            <v>1</v>
-          </cell>
-          <cell r="BH22">
-            <v>5.25</v>
-          </cell>
-          <cell r="BI22">
-            <v>15.5</v>
-          </cell>
-          <cell r="BJ22">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AK23">
-            <v>1</v>
-          </cell>
-          <cell r="AL23">
-            <v>1.75</v>
-          </cell>
-          <cell r="AM23">
-            <v>2</v>
-          </cell>
-          <cell r="AN23">
-            <v>1</v>
-          </cell>
-          <cell r="AO23">
-            <v>1.75</v>
-          </cell>
-          <cell r="AR23">
-            <v>1.5</v>
-          </cell>
-          <cell r="AS23">
-            <v>0.25</v>
-          </cell>
-          <cell r="AT23">
-            <v>25.5</v>
-          </cell>
-          <cell r="AU23">
-            <v>15</v>
-          </cell>
-          <cell r="AV23">
-            <v>34.25</v>
-          </cell>
-          <cell r="AY23">
-            <v>4.75</v>
-          </cell>
-          <cell r="AZ23">
-            <v>14</v>
-          </cell>
-          <cell r="BA23">
-            <v>0.75</v>
-          </cell>
-          <cell r="BB23">
-            <v>31.25</v>
-          </cell>
-          <cell r="BC23">
-            <v>69.25</v>
-          </cell>
-          <cell r="BF23">
-            <v>1.75</v>
-          </cell>
-          <cell r="BG23">
-            <v>1</v>
-          </cell>
-          <cell r="BH23">
-            <v>1.75</v>
-          </cell>
-          <cell r="BI23">
-            <v>1.75</v>
-          </cell>
-          <cell r="BJ23">
-            <v>2.75</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AK24">
-            <v>2.25</v>
-          </cell>
-          <cell r="AL24">
-            <v>1.25</v>
-          </cell>
-          <cell r="AM24">
-            <v>16.5</v>
-          </cell>
-          <cell r="AN24">
-            <v>27.25</v>
-          </cell>
-          <cell r="AO24">
-            <v>4.25</v>
-          </cell>
-          <cell r="AR24">
-            <v>4.25</v>
-          </cell>
-          <cell r="AS24">
-            <v>1.75</v>
-          </cell>
-          <cell r="AT24">
-            <v>8.5</v>
-          </cell>
-          <cell r="AU24">
-            <v>17.25</v>
-          </cell>
-          <cell r="AV24">
-            <v>7.25</v>
-          </cell>
-          <cell r="AY24">
-            <v>2.25</v>
-          </cell>
-          <cell r="AZ24">
-            <v>9</v>
-          </cell>
-          <cell r="BA24">
-            <v>3.25</v>
-          </cell>
-          <cell r="BB24">
-            <v>6.75</v>
-          </cell>
-          <cell r="BC24">
-            <v>7.25</v>
-          </cell>
-          <cell r="BF24">
-            <v>1.25</v>
-          </cell>
-          <cell r="BG24">
-            <v>1</v>
-          </cell>
-          <cell r="BH24">
-            <v>1.75</v>
-          </cell>
-          <cell r="BI24">
-            <v>3.75</v>
-          </cell>
-          <cell r="BJ24">
-            <v>9.25</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AK25">
-            <v>2.75</v>
-          </cell>
-          <cell r="AL25">
-            <v>5.75</v>
-          </cell>
-          <cell r="AM25">
-            <v>2</v>
-          </cell>
-          <cell r="AN25">
-            <v>1</v>
-          </cell>
-          <cell r="AO25">
-            <v>1</v>
-          </cell>
-          <cell r="AR25">
-            <v>21.25</v>
-          </cell>
-          <cell r="AS25">
-            <v>4.75</v>
-          </cell>
-          <cell r="AT25">
-            <v>8.5</v>
-          </cell>
-          <cell r="AU25">
-            <v>17</v>
-          </cell>
-          <cell r="AV25">
-            <v>25.5</v>
-          </cell>
-          <cell r="AY25">
-            <v>5.25</v>
-          </cell>
-          <cell r="AZ25">
-            <v>3.5</v>
-          </cell>
-          <cell r="BA25">
-            <v>2.5</v>
-          </cell>
-          <cell r="BB25">
-            <v>16</v>
-          </cell>
-          <cell r="BC25">
-            <v>25.5</v>
-          </cell>
-          <cell r="BF25">
-            <v>5.75</v>
-          </cell>
-          <cell r="BG25">
-            <v>1</v>
-          </cell>
-          <cell r="BH25">
-            <v>5</v>
-          </cell>
-          <cell r="BI25">
-            <v>1</v>
-          </cell>
-          <cell r="BJ25">
-            <v>1</v>
-          </cell>
-        </row>
         <row r="52">
           <cell r="AJ52">
             <v>1</v>
-          </cell>
-          <cell r="AK52">
-            <v>4</v>
-          </cell>
-          <cell r="AL52">
-            <v>2</v>
-          </cell>
-          <cell r="AM52">
-            <v>3</v>
-          </cell>
-          <cell r="AN52">
-            <v>7</v>
-          </cell>
-          <cell r="AO52">
-            <v>13</v>
           </cell>
         </row>
         <row r="53">
           <cell r="AJ53">
             <v>2</v>
           </cell>
-          <cell r="AK53">
-            <v>3</v>
-          </cell>
-          <cell r="AL53">
-            <v>3</v>
-          </cell>
-          <cell r="AM53">
-            <v>1</v>
-          </cell>
-          <cell r="AN53">
-            <v>5</v>
-          </cell>
-          <cell r="AO53">
-            <v>7</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="AJ54">
             <v>4</v>
-          </cell>
-          <cell r="AK54">
-            <v>3</v>
-          </cell>
-          <cell r="AL54">
-            <v>1</v>
-          </cell>
-          <cell r="AM54">
-            <v>1</v>
-          </cell>
-          <cell r="AN54">
-            <v>2</v>
-          </cell>
-          <cell r="AO54">
-            <v>3</v>
           </cell>
         </row>
         <row r="55">
           <cell r="AJ55">
             <v>6</v>
           </cell>
-          <cell r="AK55">
-            <v>7</v>
-          </cell>
-          <cell r="AL55">
-            <v>0</v>
-          </cell>
-          <cell r="AM55">
-            <v>0</v>
-          </cell>
-          <cell r="AN55">
-            <v>1</v>
-          </cell>
-          <cell r="AO55">
-            <v>2</v>
-          </cell>
         </row>
         <row r="56">
           <cell r="AJ56">
             <v>8</v>
-          </cell>
-          <cell r="AK56">
-            <v>204</v>
-          </cell>
-          <cell r="AL56">
-            <v>183</v>
-          </cell>
-          <cell r="AM56">
-            <v>168</v>
-          </cell>
-          <cell r="AN56">
-            <v>113</v>
-          </cell>
-          <cell r="AO56">
-            <v>9</v>
           </cell>
         </row>
         <row r="57">
           <cell r="AJ57">
             <v>10</v>
           </cell>
-          <cell r="AK57">
-            <v>28</v>
-          </cell>
-          <cell r="AL57">
-            <v>36</v>
-          </cell>
-          <cell r="AM57">
-            <v>32</v>
-          </cell>
-          <cell r="AN57">
-            <v>48</v>
-          </cell>
-          <cell r="AO57">
-            <v>9</v>
-          </cell>
         </row>
         <row r="58">
           <cell r="AJ58">
             <v>12</v>
-          </cell>
-          <cell r="AK58">
-            <v>25</v>
-          </cell>
-          <cell r="AL58">
-            <v>18</v>
-          </cell>
-          <cell r="AM58">
-            <v>21</v>
-          </cell>
-          <cell r="AN58">
-            <v>32</v>
-          </cell>
-          <cell r="AO58">
-            <v>6</v>
           </cell>
         </row>
         <row r="59">
           <cell r="AJ59">
             <v>14</v>
           </cell>
-          <cell r="AK59">
-            <v>54</v>
-          </cell>
-          <cell r="AL59">
-            <v>41</v>
-          </cell>
-          <cell r="AM59">
-            <v>49</v>
-          </cell>
-          <cell r="AN59">
-            <v>34</v>
-          </cell>
-          <cell r="AO59">
-            <v>6</v>
-          </cell>
         </row>
         <row r="60">
           <cell r="AJ60">
             <v>16</v>
-          </cell>
-          <cell r="AK60">
-            <v>227</v>
-          </cell>
-          <cell r="AL60">
-            <v>217</v>
-          </cell>
-          <cell r="AM60">
-            <v>204</v>
-          </cell>
-          <cell r="AN60">
-            <v>144</v>
-          </cell>
-          <cell r="AO60">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="AK65">
-            <v>0</v>
-          </cell>
-          <cell r="AL65">
-            <v>0</v>
-          </cell>
-          <cell r="AM65">
-            <v>0</v>
-          </cell>
-          <cell r="AN65">
-            <v>0</v>
-          </cell>
-          <cell r="AO65">
-            <v>0</v>
-          </cell>
-          <cell r="AR65">
-            <v>0</v>
-          </cell>
-          <cell r="AS65">
-            <v>0</v>
-          </cell>
-          <cell r="AT65">
-            <v>0</v>
-          </cell>
-          <cell r="AU65">
-            <v>0</v>
-          </cell>
-          <cell r="AV65">
-            <v>0</v>
-          </cell>
-          <cell r="AY65">
-            <v>0</v>
-          </cell>
-          <cell r="AZ65">
-            <v>0</v>
-          </cell>
-          <cell r="BA65">
-            <v>0</v>
-          </cell>
-          <cell r="BB65">
-            <v>0</v>
-          </cell>
-          <cell r="BC65">
-            <v>0</v>
-          </cell>
-          <cell r="BF65">
-            <v>0</v>
-          </cell>
-          <cell r="BG65">
-            <v>0</v>
-          </cell>
-          <cell r="BH65">
-            <v>0</v>
-          </cell>
-          <cell r="BI65">
-            <v>0</v>
-          </cell>
-          <cell r="BJ65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="AK66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AL66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AM66">
-            <v>0.5</v>
-          </cell>
-          <cell r="AN66">
-            <v>0.75</v>
-          </cell>
-          <cell r="AO66">
-            <v>2.75</v>
-          </cell>
-          <cell r="AR66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AS66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AT66">
-            <v>0.5</v>
-          </cell>
-          <cell r="AU66">
-            <v>0.75</v>
-          </cell>
-          <cell r="AV66">
-            <v>2.75</v>
-          </cell>
-          <cell r="AY66">
-            <v>0.25</v>
-          </cell>
-          <cell r="AZ66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BA66">
-            <v>0.5</v>
-          </cell>
-          <cell r="BB66">
-            <v>0.75</v>
-          </cell>
-          <cell r="BC66">
-            <v>2.75</v>
-          </cell>
-          <cell r="BF66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BG66">
-            <v>0.25</v>
-          </cell>
-          <cell r="BH66">
-            <v>0.5</v>
-          </cell>
-          <cell r="BI66">
-            <v>0.75</v>
-          </cell>
-          <cell r="BJ66">
-            <v>2.75</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="AK67">
-            <v>0</v>
-          </cell>
-          <cell r="AL67">
-            <v>0.75</v>
-          </cell>
-          <cell r="AM67">
-            <v>0.75</v>
-          </cell>
-          <cell r="AN67">
-            <v>1.5</v>
-          </cell>
-          <cell r="AO67">
-            <v>1.5</v>
-          </cell>
-          <cell r="AR67">
-            <v>0.5</v>
-          </cell>
-          <cell r="AS67">
-            <v>0.25</v>
-          </cell>
-          <cell r="AT67">
-            <v>0.25</v>
-          </cell>
-          <cell r="AU67">
-            <v>0.5</v>
-          </cell>
-          <cell r="AV67">
-            <v>2</v>
-          </cell>
-          <cell r="AY67">
-            <v>0.5</v>
-          </cell>
-          <cell r="AZ67">
-            <v>0.25</v>
-          </cell>
-          <cell r="BA67">
-            <v>0</v>
-          </cell>
-          <cell r="BB67">
-            <v>0.5</v>
-          </cell>
-          <cell r="BC67">
-            <v>2.5</v>
-          </cell>
-          <cell r="BF67">
-            <v>0</v>
-          </cell>
-          <cell r="BG67">
-            <v>0.75</v>
-          </cell>
-          <cell r="BH67">
-            <v>0</v>
-          </cell>
-          <cell r="BI67">
-            <v>1.5</v>
-          </cell>
-          <cell r="BJ67">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="AK68">
-            <v>0.25</v>
-          </cell>
-          <cell r="AL68">
-            <v>0</v>
-          </cell>
-          <cell r="AM68">
-            <v>0.25</v>
-          </cell>
-          <cell r="AN68">
-            <v>1</v>
-          </cell>
-          <cell r="AO68">
-            <v>0.25</v>
-          </cell>
-          <cell r="AR68">
-            <v>0.75</v>
-          </cell>
-          <cell r="AS68">
-            <v>0.5</v>
-          </cell>
-          <cell r="AT68">
-            <v>1.25</v>
-          </cell>
-          <cell r="AU68">
-            <v>0</v>
-          </cell>
-          <cell r="AV68">
-            <v>1.75</v>
-          </cell>
-          <cell r="AY68">
-            <v>0</v>
-          </cell>
-          <cell r="AZ68">
-            <v>0.5</v>
-          </cell>
-          <cell r="BA68">
-            <v>0.5</v>
-          </cell>
-          <cell r="BB68">
-            <v>3</v>
-          </cell>
-          <cell r="BC68">
-            <v>2.5</v>
-          </cell>
-          <cell r="BF68">
-            <v>0</v>
-          </cell>
-          <cell r="BG68">
-            <v>1</v>
-          </cell>
-          <cell r="BH68">
-            <v>0</v>
-          </cell>
-          <cell r="BI68">
-            <v>3</v>
-          </cell>
-          <cell r="BJ68">
-            <v>3.5</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="AK69">
-            <v>16</v>
-          </cell>
-          <cell r="AL69">
-            <v>3.5</v>
-          </cell>
-          <cell r="AM69">
-            <v>12.25</v>
-          </cell>
-          <cell r="AN69">
-            <v>1</v>
-          </cell>
-          <cell r="AO69">
-            <v>1</v>
-          </cell>
-          <cell r="AR69">
-            <v>7</v>
-          </cell>
-          <cell r="AS69">
-            <v>3.5</v>
-          </cell>
-          <cell r="AT69">
-            <v>2.75</v>
-          </cell>
-          <cell r="AU69">
-            <v>1</v>
-          </cell>
-          <cell r="AV69">
-            <v>1.5</v>
-          </cell>
-          <cell r="AY69">
-            <v>0.75</v>
-          </cell>
-          <cell r="AZ69">
-            <v>11.5</v>
-          </cell>
-          <cell r="BA69">
-            <v>1</v>
-          </cell>
-          <cell r="BB69">
-            <v>3.5</v>
-          </cell>
-          <cell r="BC69">
-            <v>2</v>
-          </cell>
-          <cell r="BF69">
-            <v>5.25</v>
-          </cell>
-          <cell r="BG69">
-            <v>8.5</v>
-          </cell>
-          <cell r="BH69">
-            <v>0</v>
-          </cell>
-          <cell r="BI69">
-            <v>1.5</v>
-          </cell>
-          <cell r="BJ69">
-            <v>5.5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="AK70">
-            <v>37.5</v>
-          </cell>
-          <cell r="AL70">
-            <v>5.25</v>
-          </cell>
-          <cell r="AM70">
-            <v>4.25</v>
-          </cell>
-          <cell r="AN70">
-            <v>14.5</v>
-          </cell>
-          <cell r="AO70">
-            <v>53.25</v>
-          </cell>
-          <cell r="AR70">
-            <v>8.5</v>
-          </cell>
-          <cell r="AS70">
-            <v>2.25</v>
-          </cell>
-          <cell r="AT70">
-            <v>4.25</v>
-          </cell>
-          <cell r="AU70">
-            <v>7</v>
-          </cell>
-          <cell r="AV70">
-            <v>3.75</v>
-          </cell>
-          <cell r="AY70">
-            <v>0</v>
-          </cell>
-          <cell r="AZ70">
-            <v>0.5</v>
-          </cell>
-          <cell r="BA70">
-            <v>3</v>
-          </cell>
-          <cell r="BB70">
-            <v>6.25</v>
-          </cell>
-          <cell r="BC70">
-            <v>1</v>
-          </cell>
-          <cell r="BF70">
-            <v>2</v>
-          </cell>
-          <cell r="BG70">
-            <v>2</v>
-          </cell>
-          <cell r="BH70">
-            <v>5.5</v>
-          </cell>
-          <cell r="BI70">
-            <v>9.25</v>
-          </cell>
-          <cell r="BJ70">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="AK71">
-            <v>23.75</v>
-          </cell>
-          <cell r="AL71">
-            <v>1.75</v>
-          </cell>
-          <cell r="AM71">
-            <v>17.25</v>
-          </cell>
-          <cell r="AN71">
-            <v>25.5</v>
-          </cell>
-          <cell r="AO71">
-            <v>5</v>
-          </cell>
-          <cell r="AR71">
-            <v>4.75</v>
-          </cell>
-          <cell r="AS71">
-            <v>6.75</v>
-          </cell>
-          <cell r="AT71">
-            <v>5.25</v>
-          </cell>
-          <cell r="AU71">
-            <v>2.5</v>
-          </cell>
-          <cell r="AV71">
-            <v>55.5</v>
-          </cell>
-          <cell r="AY71">
-            <v>15</v>
-          </cell>
-          <cell r="AZ71">
-            <v>1.5</v>
-          </cell>
-          <cell r="BA71">
-            <v>3.5</v>
-          </cell>
-          <cell r="BB71">
-            <v>3</v>
-          </cell>
-          <cell r="BC71">
-            <v>1.75</v>
-          </cell>
-          <cell r="BF71">
-            <v>2.5</v>
-          </cell>
-          <cell r="BG71">
-            <v>1</v>
-          </cell>
-          <cell r="BH71">
-            <v>6</v>
-          </cell>
-          <cell r="BI71">
-            <v>6</v>
-          </cell>
-          <cell r="BJ71">
-            <v>3.75</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="AK72">
-            <v>2</v>
-          </cell>
-          <cell r="AL72">
-            <v>3</v>
-          </cell>
-          <cell r="AM72">
-            <v>58.25</v>
-          </cell>
-          <cell r="AN72">
-            <v>13.25</v>
-          </cell>
-          <cell r="AO72">
-            <v>2.75</v>
-          </cell>
-          <cell r="AR72">
-            <v>7.5</v>
-          </cell>
-          <cell r="AS72">
-            <v>3</v>
-          </cell>
-          <cell r="AT72">
-            <v>2.25</v>
-          </cell>
-          <cell r="AU72">
-            <v>4.75</v>
-          </cell>
-          <cell r="AV72">
-            <v>53.75</v>
-          </cell>
-          <cell r="AY72">
-            <v>2.25</v>
-          </cell>
-          <cell r="AZ72">
-            <v>6.25</v>
-          </cell>
-          <cell r="BA72">
-            <v>5.5</v>
-          </cell>
-          <cell r="BB72">
-            <v>10.25</v>
-          </cell>
-          <cell r="BC72">
-            <v>3.5</v>
-          </cell>
-          <cell r="BF72">
-            <v>11.25</v>
-          </cell>
-          <cell r="BG72">
-            <v>7.75</v>
-          </cell>
-          <cell r="BH72">
-            <v>4</v>
-          </cell>
-          <cell r="BI72">
-            <v>2.75</v>
-          </cell>
-          <cell r="BJ72">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="AK73">
-            <v>1</v>
-          </cell>
-          <cell r="AL73">
-            <v>1.75</v>
-          </cell>
-          <cell r="AM73">
-            <v>4</v>
-          </cell>
-          <cell r="AN73">
-            <v>6</v>
-          </cell>
-          <cell r="AO73">
-            <v>4.25</v>
-          </cell>
-          <cell r="AR73">
-            <v>7</v>
-          </cell>
-          <cell r="AS73">
-            <v>1.75</v>
-          </cell>
-          <cell r="AT73">
-            <v>2.5</v>
-          </cell>
-          <cell r="AU73">
-            <v>12</v>
-          </cell>
-          <cell r="AV73">
-            <v>24.75</v>
-          </cell>
-          <cell r="AY73">
-            <v>1</v>
-          </cell>
-          <cell r="AZ73">
-            <v>2.5</v>
-          </cell>
-          <cell r="BA73">
-            <v>2.5</v>
-          </cell>
-          <cell r="BB73">
-            <v>15.25</v>
-          </cell>
-          <cell r="BC73">
-            <v>26</v>
-          </cell>
-          <cell r="BF73">
-            <v>3</v>
-          </cell>
-          <cell r="BG73">
-            <v>4</v>
-          </cell>
-          <cell r="BH73">
-            <v>4</v>
-          </cell>
-          <cell r="BI73">
-            <v>2.75</v>
-          </cell>
-          <cell r="BJ73">
-            <v>3</v>
           </cell>
         </row>
         <row r="80">
@@ -21635,8 +20230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="FP70" sqref="FP70"/>
+    <sheetView tabSelected="1" topLeftCell="BU154" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="DS144" sqref="DS144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
